--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>0.3150707363602531</v>
+        <v>1.100224207074</v>
       </c>
       <c r="R2">
-        <v>0.3150707363602531</v>
+        <v>9.902017863666002</v>
       </c>
       <c r="S2">
-        <v>2.840736400228534E-06</v>
+        <v>8.81227226866777E-06</v>
       </c>
       <c r="T2">
-        <v>2.840736400228534E-06</v>
+        <v>8.81227226866777E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>27.9578882049039</v>
+        <v>89.97517982583557</v>
       </c>
       <c r="R3">
-        <v>27.9578882049039</v>
+        <v>809.7766184325201</v>
       </c>
       <c r="S3">
-        <v>0.0002520735235987775</v>
+        <v>0.000720658368494048</v>
       </c>
       <c r="T3">
-        <v>0.0002520735235987775</v>
+        <v>0.000720658368494048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>23.8710625554404</v>
+        <v>83.53962747702134</v>
       </c>
       <c r="R4">
-        <v>23.8710625554404</v>
+        <v>751.8566472931921</v>
       </c>
       <c r="S4">
-        <v>0.0002152259429001241</v>
+        <v>0.0006691126570541605</v>
       </c>
       <c r="T4">
-        <v>0.0002152259429001241</v>
+        <v>0.0006691126570541607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>24.51870609146653</v>
+        <v>79.07493082814933</v>
       </c>
       <c r="R5">
-        <v>24.51870609146653</v>
+        <v>711.6743774533441</v>
       </c>
       <c r="S5">
-        <v>0.000221065217560842</v>
+        <v>0.0006333525617809411</v>
       </c>
       <c r="T5">
-        <v>0.000221065217560842</v>
+        <v>0.0006333525617809411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>10.33773661735731</v>
+        <v>33.70807615192111</v>
       </c>
       <c r="R6">
-        <v>10.33773661735731</v>
+        <v>303.37268536729</v>
       </c>
       <c r="S6">
-        <v>9.320695740947581E-05</v>
+        <v>0.0002699856472833785</v>
       </c>
       <c r="T6">
-        <v>9.320695740947581E-05</v>
+        <v>0.0002699856472833786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H7">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I7">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J7">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>4.256363646497335</v>
+        <v>14.46964296906311</v>
       </c>
       <c r="R7">
-        <v>4.256363646497335</v>
+        <v>130.226786721568</v>
       </c>
       <c r="S7">
-        <v>3.837616683445111E-05</v>
+        <v>0.0001158949536412283</v>
       </c>
       <c r="T7">
-        <v>3.837616683445111E-05</v>
+        <v>0.0001158949536412283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>128.4152640530679</v>
+        <v>144.959255598021</v>
       </c>
       <c r="R8">
-        <v>128.4152640530679</v>
+        <v>1304.633300382189</v>
       </c>
       <c r="S8">
-        <v>0.001157815921448833</v>
+        <v>0.001161054646843674</v>
       </c>
       <c r="T8">
-        <v>0.001157815921448833</v>
+        <v>0.001161054646843674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>11394.96367601025</v>
+        <v>11854.6156374234</v>
       </c>
       <c r="R9">
-        <v>11394.96367601025</v>
+        <v>106691.5407368106</v>
       </c>
       <c r="S9">
-        <v>0.102739113342193</v>
+        <v>0.09494982928543694</v>
       </c>
       <c r="T9">
-        <v>0.102739113342193</v>
+        <v>0.09494982928543694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>9729.271707986172</v>
+        <v>11006.70402827312</v>
       </c>
       <c r="R10">
-        <v>9729.271707986172</v>
+        <v>99060.33625445807</v>
       </c>
       <c r="S10">
-        <v>0.0877209245386351</v>
+        <v>0.08815846084293735</v>
       </c>
       <c r="T10">
-        <v>0.0877209245386351</v>
+        <v>0.08815846084293737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>9993.235656691217</v>
+        <v>10418.46110603033</v>
       </c>
       <c r="R11">
-        <v>9993.235656691217</v>
+        <v>93766.14995427297</v>
       </c>
       <c r="S11">
-        <v>0.09010087262933018</v>
+        <v>0.08344691499838065</v>
       </c>
       <c r="T11">
-        <v>0.09010087262933018</v>
+        <v>0.08344691499838065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J12">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>4213.41312990462</v>
+        <v>4441.18352896342</v>
       </c>
       <c r="R12">
-        <v>4213.41312990462</v>
+        <v>39970.65176067079</v>
       </c>
       <c r="S12">
-        <v>0.03798891698286846</v>
+        <v>0.03557176637335712</v>
       </c>
       <c r="T12">
-        <v>0.03798891698286846</v>
+        <v>0.03557176637335712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J13">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>1734.791583264877</v>
+        <v>1906.437487994164</v>
       </c>
       <c r="R13">
-        <v>1734.791583264877</v>
+        <v>17157.93739194747</v>
       </c>
       <c r="S13">
-        <v>0.01564120379544177</v>
+        <v>0.01526965694754038</v>
       </c>
       <c r="T13">
-        <v>0.01564120379544177</v>
+        <v>0.01526965694754038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>44.47274921902062</v>
+        <v>71.74699785099602</v>
       </c>
       <c r="R14">
-        <v>44.47274921902062</v>
+        <v>645.7229806589642</v>
       </c>
       <c r="S14">
-        <v>0.0004009745842605155</v>
+        <v>0.0005746593062190036</v>
       </c>
       <c r="T14">
-        <v>0.0004009745842605155</v>
+        <v>0.0005746593062190036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>3946.301599423813</v>
+        <v>5867.394111219565</v>
       </c>
       <c r="R15">
-        <v>3946.301599423813</v>
+        <v>52806.54700097608</v>
       </c>
       <c r="S15">
-        <v>0.03558058970905279</v>
+        <v>0.04699503436045297</v>
       </c>
       <c r="T15">
-        <v>0.03558058970905279</v>
+        <v>0.04699503436045297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>3369.439481697225</v>
+        <v>5447.723686253819</v>
       </c>
       <c r="R16">
-        <v>3369.439481697225</v>
+        <v>49029.51317628437</v>
       </c>
       <c r="S16">
-        <v>0.03037949348961487</v>
+        <v>0.04363367399033258</v>
       </c>
       <c r="T16">
-        <v>0.03037949348961487</v>
+        <v>0.04363367399033259</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H17">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I17">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J17">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>3460.855424966793</v>
+        <v>5156.575228682731</v>
       </c>
       <c r="R17">
-        <v>3460.855424966793</v>
+        <v>46409.17705814457</v>
       </c>
       <c r="S17">
-        <v>0.03120371664853801</v>
+        <v>0.04130171341154982</v>
       </c>
       <c r="T17">
-        <v>0.03120371664853801</v>
+        <v>0.04130171341154982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H18">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I18">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J18">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>1459.188413964097</v>
+        <v>2198.145843077629</v>
       </c>
       <c r="R18">
-        <v>1459.188413964097</v>
+        <v>19783.31258769866</v>
       </c>
       <c r="S18">
-        <v>0.01315631432555498</v>
+        <v>0.01760610203892512</v>
       </c>
       <c r="T18">
-        <v>0.01315631432555498</v>
+        <v>0.01760610203892512</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H19">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I19">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J19">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>600.7926830094264</v>
+        <v>943.583531730297</v>
       </c>
       <c r="R19">
-        <v>600.7926830094264</v>
+        <v>8492.251785572673</v>
       </c>
       <c r="S19">
-        <v>0.005416858650002964</v>
+        <v>0.007557655009202341</v>
       </c>
       <c r="T19">
-        <v>0.005416858650002964</v>
+        <v>0.007557655009202343</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H20">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I20">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J20">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>48.32544298873891</v>
+        <v>52.75412183800201</v>
       </c>
       <c r="R20">
-        <v>48.32544298873891</v>
+        <v>474.7870965420181</v>
       </c>
       <c r="S20">
-        <v>0.000435711188354583</v>
+        <v>0.0004225354086393758</v>
       </c>
       <c r="T20">
-        <v>0.000435711188354583</v>
+        <v>0.0004225354086393759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H21">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I21">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J21">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>4288.171437752289</v>
+        <v>4314.176663637996</v>
       </c>
       <c r="R21">
-        <v>4288.171437752289</v>
+        <v>38827.58997274197</v>
       </c>
       <c r="S21">
-        <v>0.03866295180049602</v>
+        <v>0.03455450182851114</v>
       </c>
       <c r="T21">
-        <v>0.03866295180049602</v>
+        <v>0.03455450182851114</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H22">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I22">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J22">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>3661.33550176665</v>
+        <v>4005.601456401757</v>
       </c>
       <c r="R22">
-        <v>3661.33550176665</v>
+        <v>36050.41310761582</v>
       </c>
       <c r="S22">
-        <v>0.03301128233446951</v>
+        <v>0.03208296127882805</v>
       </c>
       <c r="T22">
-        <v>0.03301128233446951</v>
+        <v>0.03208296127882805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H23">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I23">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J23">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>3760.670848294898</v>
+        <v>3791.525862109301</v>
       </c>
       <c r="R23">
-        <v>3760.670848294898</v>
+        <v>34123.73275898372</v>
       </c>
       <c r="S23">
-        <v>0.03390690830713827</v>
+        <v>0.03036831765359913</v>
       </c>
       <c r="T23">
-        <v>0.03390690830713827</v>
+        <v>0.03036831765359913</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H24">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I24">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J24">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>1585.598546237193</v>
+        <v>1616.252346394241</v>
       </c>
       <c r="R24">
-        <v>1585.598546237193</v>
+        <v>14546.27111754817</v>
       </c>
       <c r="S24">
-        <v>0.01429605160567893</v>
+        <v>0.01294541207121543</v>
       </c>
       <c r="T24">
-        <v>0.01429605160567893</v>
+        <v>0.01294541207121543</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H25">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I25">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J25">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>652.8396166344066</v>
+        <v>693.7979579384071</v>
       </c>
       <c r="R25">
-        <v>652.8396166344066</v>
+        <v>6244.181621445664</v>
       </c>
       <c r="S25">
-        <v>0.005886123490580559</v>
+        <v>0.005556991443642845</v>
       </c>
       <c r="T25">
-        <v>0.005886123490580559</v>
+        <v>0.005556991443642847</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H26">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I26">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J26">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>160.7751307678001</v>
+        <v>183.796520860002</v>
       </c>
       <c r="R26">
-        <v>160.7751307678001</v>
+        <v>1654.168687740018</v>
       </c>
       <c r="S26">
-        <v>0.001449578502591803</v>
+        <v>0.001472122657762315</v>
       </c>
       <c r="T26">
-        <v>0.001449578502591803</v>
+        <v>0.001472122657762316</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H27">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I27">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J27">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>14266.42532423397</v>
+        <v>15030.686390478</v>
       </c>
       <c r="R27">
-        <v>14266.42532423397</v>
+        <v>135276.177514302</v>
       </c>
       <c r="S27">
-        <v>0.1286287460011986</v>
+        <v>0.1203886444292191</v>
       </c>
       <c r="T27">
-        <v>0.1286287460011986</v>
+        <v>0.1203886444292191</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H28">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I28">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J28">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>12180.98909550593</v>
+        <v>13955.60358106576</v>
       </c>
       <c r="R28">
-        <v>12180.98909550593</v>
+        <v>125600.4322295918</v>
       </c>
       <c r="S28">
-        <v>0.1098260648200135</v>
+        <v>0.11177774279027</v>
       </c>
       <c r="T28">
-        <v>0.1098260648200135</v>
+        <v>0.1117777427902701</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H29">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I29">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J29">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>12511.47035631228</v>
+        <v>13209.7595017573</v>
       </c>
       <c r="R29">
-        <v>12511.47035631228</v>
+        <v>118887.8355158157</v>
       </c>
       <c r="S29">
-        <v>0.1128057453768666</v>
+        <v>0.1058038866847773</v>
       </c>
       <c r="T29">
-        <v>0.1128057453768666</v>
+        <v>0.1058038866847773</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H30">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I30">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J30">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>5275.167651870725</v>
+        <v>5631.05872582424</v>
       </c>
       <c r="R30">
-        <v>5275.167651870725</v>
+        <v>50679.52853241817</v>
       </c>
       <c r="S30">
-        <v>0.04756189336747203</v>
+        <v>0.04510210040259827</v>
       </c>
       <c r="T30">
-        <v>0.04756189336747203</v>
+        <v>0.04510210040259827</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H31">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I31">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J31">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>2171.948527388683</v>
+        <v>2417.207346194407</v>
       </c>
       <c r="R31">
-        <v>2171.948527388683</v>
+        <v>21754.86611574966</v>
       </c>
       <c r="S31">
-        <v>0.01958269216764411</v>
+        <v>0.01936068042089197</v>
       </c>
       <c r="T31">
-        <v>0.01958269216764411</v>
+        <v>0.01936068042089198</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H32">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I32">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J32">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>0.6267298641194099</v>
+        <v>0.6915671861790001</v>
       </c>
       <c r="R32">
-        <v>0.6267298641194099</v>
+        <v>6.224104675611001</v>
       </c>
       <c r="S32">
-        <v>5.650713102338403E-06</v>
+        <v>5.539124023541782E-06</v>
       </c>
       <c r="T32">
-        <v>5.650713102338403E-06</v>
+        <v>5.539124023541784E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H33">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I33">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J33">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>55.61304638489275</v>
+        <v>56.55563796726889</v>
       </c>
       <c r="R33">
-        <v>55.61304638489275</v>
+        <v>509.00074170542</v>
       </c>
       <c r="S33">
-        <v>0.0005014175769485791</v>
+        <v>0.0004529837435782367</v>
       </c>
       <c r="T33">
-        <v>0.0005014175769485791</v>
+        <v>0.0004529837435782368</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H34">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I34">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J34">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>47.48364752812512</v>
+        <v>52.51044717728133</v>
       </c>
       <c r="R34">
-        <v>47.48364752812512</v>
+        <v>472.594024595532</v>
       </c>
       <c r="S34">
-        <v>0.0004281214038060793</v>
+        <v>0.0004205836905791483</v>
       </c>
       <c r="T34">
-        <v>0.0004281214038060793</v>
+        <v>0.0004205836905791484</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H35">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I35">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J35">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>48.77192186937454</v>
+        <v>49.70407582246933</v>
       </c>
       <c r="R35">
-        <v>48.77192186937454</v>
+        <v>447.336682402224</v>
       </c>
       <c r="S35">
-        <v>0.0004397367250413818</v>
+        <v>0.0003981059916641579</v>
       </c>
       <c r="T35">
-        <v>0.0004397367250413818</v>
+        <v>0.000398105991664158</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H36">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I36">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J36">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>20.56353547887264</v>
+        <v>21.18786264291278</v>
       </c>
       <c r="R36">
-        <v>20.56353547887264</v>
+        <v>190.690763786215</v>
       </c>
       <c r="S36">
-        <v>0.0001854046631783403</v>
+        <v>0.0001697046958247156</v>
       </c>
       <c r="T36">
-        <v>0.0001854046631783403</v>
+        <v>0.0001697046958247156</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H37">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I37">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J37">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>8.466639081205999</v>
+        <v>9.095173700769777</v>
       </c>
       <c r="R37">
-        <v>8.466639081205999</v>
+        <v>81.856563306928</v>
       </c>
       <c r="S37">
-        <v>7.633679377344261E-05</v>
+        <v>7.284801267476489E-05</v>
       </c>
       <c r="T37">
-        <v>7.633679377344261E-05</v>
+        <v>7.284801267476492E-05</v>
       </c>
     </row>
   </sheetData>
